--- a/PROVE PARAMETRI.xlsx
+++ b/PROVE PARAMETRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\gitFE\TheBigLevy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E6214-1A5A-4B3E-A516-94FAC4178C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FD893-1E7E-4528-8061-1F187F516993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{236B938C-148C-4D25-BEF9-FF30F5C697FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{236B938C-148C-4D25-BEF9-FF30F5C697FC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIG_SI_USA" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
   <si>
     <t>Pesi</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>MIGLIORE SE VOGLIAMO INCLUDEE ULTIMA USA INSIEME CON RMSE2</t>
+  </si>
+  <si>
+    <t>0.1513    1.1588   -0.1190    0.1535    2.0060   -0.0918</t>
+  </si>
+  <si>
+    <t>0,1*ones</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -370,15 +382,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +400,12 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1630,9 +1645,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69EFE10-1FD3-4791-8844-4BB5798EF848}">
-  <dimension ref="B5:E13"/>
+  <dimension ref="B5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1641,8 +1656,8 @@
     <col min="4" max="4" width="49.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
@@ -1655,11 +1670,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1670,8 +1685,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
@@ -1684,11 +1699,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="4"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1697,6 +1712,14 @@
       </c>
       <c r="E13" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1749,7 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
@@ -1737,7 +1760,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1769,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C6" s="4"/>
+      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>56</v>
       </c>
@@ -1755,7 +1778,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C7" s="4"/>
+      <c r="C7" s="9"/>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1787,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
@@ -1775,7 +1798,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="4"/>
+      <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1807,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C11" s="4"/>
+      <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>56</v>
       </c>
@@ -1793,7 +1816,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -1815,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C610F46E-5012-4FBD-BD8C-8D99CE947A25}">
   <dimension ref="C8:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1842,7 +1865,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
@@ -1851,64 +1874,64 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C10" s="4"/>
+      <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C11" s="4"/>
+      <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
@@ -1920,7 +1943,7 @@
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="2"/>
@@ -1929,7 +1952,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C14" s="4"/>
+      <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -1939,12 +1962,12 @@
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C15" s="4"/>
+      <c r="C15" s="9"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -1954,13 +1977,13 @@
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C16" s="4"/>
+      <c r="C16" s="9"/>
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -1970,7 +1993,7 @@
       <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>71</v>
       </c>
     </row>

--- a/PROVE PARAMETRI.xlsx
+++ b/PROVE PARAMETRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\gitFE\TheBigLevy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FD893-1E7E-4528-8061-1F187F516993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB5AD3-6011-4274-87C6-C4FA543D4EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{236B938C-148C-4D25-BEF9-FF30F5C697FC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{236B938C-148C-4D25-BEF9-FF30F5C697FC}"/>
   </bookViews>
   <sheets>
     <sheet name="NIG_SI_USA" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RMSE_2" sheetId="5" r:id="rId3"/>
     <sheet name="VG" sheetId="6" r:id="rId4"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NIG_NO_USA '!$B$3:$F$19</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
   <si>
     <t>Pesi</t>
   </si>
@@ -296,6 +297,36 @@
   </si>
   <si>
     <t>0,1*ones</t>
+  </si>
+  <si>
+    <t>The average percentage error for the EU market is: 3.8683%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the US market is: 4.7531%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>The average percentage error for the EU market (Implied Volatility) is: 6.9592%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the US market (Implied Volatility) is: 8.3273%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the EU market is: 3.651%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the US market is: 4.6571%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the EU market (Implied Volatility) is: 7.0379%</t>
+  </si>
+  <si>
+    <t>The average percentage error for the US market (Implied Volatility) is: 8.7949%</t>
+  </si>
+  <si>
+    <t>0.1398    0.4961   -0.1483    0.1479    1.3100   -0.0966</t>
   </si>
 </sst>
 </file>
@@ -382,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -400,11 +431,14 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,7 +1691,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
@@ -1671,10 +1705,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1686,7 +1720,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
@@ -1700,10 +1734,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1737,7 +1771,7 @@
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1749,7 +1783,7 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
@@ -1760,7 +1794,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" t="s">
         <v>55</v>
       </c>
@@ -1769,7 +1803,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1812,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +1821,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
@@ -1798,7 +1832,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -1807,7 +1841,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>56</v>
       </c>
@@ -1816,7 +1850,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -1838,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C610F46E-5012-4FBD-BD8C-8D99CE947A25}">
   <dimension ref="C8:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1865,7 +1899,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
@@ -1882,7 +1916,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1931,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +1950,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1965,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
@@ -1943,7 +1977,7 @@
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="2"/>
@@ -1952,7 +1986,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +2001,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +2017,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="3:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -2005,4 +2039,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B49388-67DF-4412-8436-E9009CB235E6}">
+  <dimension ref="D7:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F31" sqref="F19:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F11" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F12" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F15" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>